--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,39 +58,39 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -106,10 +106,13 @@
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>join</t>
   </si>
   <si>
     <t>well</t>
@@ -124,10 +127,10 @@
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -604,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4232804232804233</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3449612403100775</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -754,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -884,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -988,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6088235294117647</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5638297872340425</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5606694560669456</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5423728813559322</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L25">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L28">
+        <v>33</v>
+      </c>
+      <c r="M28">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
